--- a/pred_ohlcv/54_21/2020-01-20 WPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 WPX ohlcv.xlsx
@@ -14484,7 +14484,7 @@
         <v>-659448.3231786216</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-674276.4306365163</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-646924.7294285272</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-618615.9124285273</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-569229.0700285273</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-531229.3763285272</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>551771.6909032057</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>603902.1858772977</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>799070.4943232809</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>728381.172293382</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>983910.5147966192</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>1221417.773174566</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>1068606.226191813</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>986894.1383918131</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>1044256.801191813</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>745369.7598237307</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>588587.8303237307</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>481530.7455817017</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>700117.1684396728</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>680711.7366976438</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>624948.1607043066</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>599377.2772043066</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>612164.4843043066</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-775501.6322005726</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-863121.7591005727</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-873237.7810917827</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-879578.3600917828</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-879578.3600917828</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-882505.6097917828</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-881026.0367917828</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-877893.2728917828</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-884778.8996917828</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 WPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 WPX ohlcv.xlsx
@@ -14484,7 +14484,7 @@
         <v>-659448.3231786216</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-674276.4306365163</v>
       </c>
       <c r="H543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-646924.7294285272</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-646489.0427285272</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-646469.6273285272</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-646469.6273285272</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-637268.2952285273</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-531229.3763285272</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-641045.9265285273</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-641041.9265285273</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-656041.9265285273</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-656041.9265285273</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-628627.2599285273</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-606627.6116285273</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-545877.9718285273</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>551771.6909032057</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>603902.1858772977</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>799070.4943232809</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>728381.172293382</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>983910.5147966192</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>1221417.773174566</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>862011.0855868255</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>1016577.80712423</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>849329.4614918132</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>1068606.226191813</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>986894.1383918131</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>1044256.801191813</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>745369.7598237307</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>588587.8303237307</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>481530.7455817017</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>624948.1607043066</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>599377.2772043066</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>612164.4843043066</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>385345.0896994274</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-775501.6322005726</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-863121.7591005727</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-873237.7810917827</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-879578.3600917828</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-879578.3600917828</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-882505.6097917828</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-881026.0367917828</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-877893.2728917828</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-884778.8996917828</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
